--- a/data/trans_camb/P19C01-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C01-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.52412398768754</v>
+        <v>-10.54725766062679</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.1375914430282</v>
+        <v>-1.18468154830103</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.927533444722008</v>
+        <v>7.979136209102741</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.535432276082802</v>
+        <v>-2.965584508058527</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.006601140236815</v>
+        <v>6.796984047061011</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>15.922707014873</v>
+        <v>15.16157299833194</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.700035594169287</v>
+        <v>-4.885921239657712</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>4.832083639030181</v>
+        <v>5.165950076804493</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>13.81301572424673</v>
+        <v>14.04365686827977</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.956045641398478</v>
+        <v>-1.862555213256155</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.485121322888872</v>
+        <v>9.074243524209393</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.87021834160043</v>
+        <v>18.62515985444175</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.764113507287247</v>
+        <v>4.407928281607484</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>16.47952932508177</v>
+        <v>16.17572867909912</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>23.80380861995125</v>
+        <v>23.25050600384594</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7027544498966471</v>
+        <v>0.6185072198019145</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>12.30346749517224</v>
+        <v>12.29015795541962</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>20.28303883575153</v>
+        <v>20.29167986721242</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4113403372332428</v>
+        <v>-0.3963228029310245</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.04584798525191392</v>
+        <v>-0.0432967295851889</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2981900344208345</v>
+        <v>0.3162880331570695</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1046348316665908</v>
+        <v>-0.1212135702726987</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2980357777424015</v>
+        <v>0.2790665261412084</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6439184103646265</v>
+        <v>0.6129591935978336</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1954770360823482</v>
+        <v>-0.2034882720347037</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.208090468982145</v>
+        <v>0.2180250765520621</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.5674746599626161</v>
+        <v>0.5850050091002367</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.09311068977272625</v>
+        <v>-0.08291588668096722</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4576376182568161</v>
+        <v>0.4427355507637918</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8544222878915496</v>
+        <v>0.8652498391568685</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2370603671051516</v>
+        <v>0.2174045088174945</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8222748251102219</v>
+        <v>0.7860454675808268</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.16183421035243</v>
+        <v>1.139546687727577</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03144131089566199</v>
+        <v>0.02926445062090936</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5780828592993889</v>
+        <v>0.5705557279878668</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.9628293524735761</v>
+        <v>0.9650705765185037</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>10.4924524287656</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>28.03830088951377</v>
+        <v>28.03830088951378</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.940327017455912</v>
+        <v>-1.781987931658542</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.368680979791728</v>
+        <v>8.393361465339627</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24.92760490912553</v>
+        <v>25.1723902772299</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.186591934016066</v>
+        <v>-1.73537938918907</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>5.2531798181171</v>
+        <v>5.297647435086678</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>24.04814282365654</v>
+        <v>24.26521722884194</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.8064861748064426</v>
+        <v>-1.082917763932465</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>8.166141079590743</v>
+        <v>7.743885567927479</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>25.51915034611011</v>
+        <v>25.48577594667162</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.208695758844604</v>
+        <v>5.105627778666899</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.51876004607719</v>
+        <v>15.38520700511223</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>32.32726625145537</v>
+        <v>32.2785395615164</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.863381355446196</v>
+        <v>4.963779921112824</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>12.34543376175245</v>
+        <v>12.23026748103809</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>30.7574247029072</v>
+        <v>30.62684359624806</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.886207092288572</v>
+        <v>3.885322051616095</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>13.24103683241633</v>
+        <v>12.85293885076307</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>30.44327489699576</v>
+        <v>30.28462906196828</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.3226791478991343</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.862274582705183</v>
+        <v>0.8622745827051833</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.06211147079557882</v>
+        <v>-0.05463462992245902</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2658458003016767</v>
+        <v>0.2686472175958378</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.7801101441868693</v>
+        <v>0.7938783626276736</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.05847165611458448</v>
+        <v>-0.04679405018822459</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1453385895932237</v>
+        <v>0.1434384310378096</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6400248191425634</v>
+        <v>0.6417689623565181</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.02422886473935046</v>
+        <v>-0.03388036490315564</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2416457480900935</v>
+        <v>0.2283470864240855</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.7444585637409968</v>
+        <v>0.7532551969804434</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1869609713530549</v>
+        <v>0.1803315706338074</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5657448791877564</v>
+        <v>0.5561164188433113</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.187327537369337</v>
+        <v>1.174265461082066</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1443939788577647</v>
+        <v>0.14841213510786</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3691480044258149</v>
+        <v>0.3692570219054207</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9313758718028788</v>
+        <v>0.9326233242594247</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1241345807438832</v>
+        <v>0.123179832461533</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4315611764533536</v>
+        <v>0.4159778546929545</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.975546827053336</v>
+        <v>0.981288395615695</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>10.131588171835</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28.26777498165096</v>
+        <v>28.26777498165097</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>15.39809006780296</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.236827030473766</v>
+        <v>-4.287272382907259</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.648602876746695</v>
+        <v>3.584326020919106</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21.73297655363208</v>
+        <v>22.35995877458712</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8.312107637663484</v>
+        <v>8.471467573062764</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>6.234590590370082</v>
+        <v>6.212617326530657</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>21.76500902408304</v>
+        <v>21.84027877328034</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.090957296751902</v>
+        <v>3.439770991485329</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>7.068608600599631</v>
+        <v>6.518030556393188</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>23.77237014537908</v>
+        <v>23.83041474894428</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.527461183784947</v>
+        <v>9.398539738623805</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.85515499343734</v>
+        <v>16.64246919717125</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>33.47074836895934</v>
+        <v>34.62386124208824</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22.18535595992648</v>
+        <v>22.21568139305655</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>19.58589549109807</v>
+        <v>19.37152709598375</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>33.47156785632141</v>
+        <v>33.82795124616549</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>13.54705431206325</v>
+        <v>13.81080219089895</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>15.71492967732966</v>
+        <v>15.77649640156676</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>32.08672332894136</v>
+        <v>32.45799505013917</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2506000185141466</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.6991899802489155</v>
+        <v>0.6991899802489158</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.3932850537664755</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.09732858986857716</v>
+        <v>-0.09842411369839357</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.07375023526337555</v>
+        <v>0.08200804128927237</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.4853569655735303</v>
+        <v>0.5055404687811793</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1893218629364146</v>
+        <v>0.1891646128905117</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1390808799697452</v>
+        <v>0.1464642650694724</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4958314536031168</v>
+        <v>0.4913166711964399</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09660881155957717</v>
+        <v>0.08023580907715985</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1698292837369894</v>
+        <v>0.1546954147695514</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.5505507833961489</v>
+        <v>0.5550929465201355</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2603964689751254</v>
+        <v>0.252579321674368</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4426802995089443</v>
+        <v>0.4440058734803339</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9143013464127216</v>
+        <v>0.9458190593694762</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6257498928660351</v>
+        <v>0.6195736892046029</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.543860700419888</v>
+        <v>0.5562346086181712</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9497127038253521</v>
+        <v>0.9690699384955441</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3645348621727931</v>
+        <v>0.3681400924732995</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4184112005040376</v>
+        <v>0.4237959199508766</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.866732648545021</v>
+        <v>0.884039402729889</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>12.0512183757683</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>27.758348822295</v>
+        <v>27.75834882229499</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.290625784431781</v>
@@ -1306,7 +1306,7 @@
         <v>11.51871577750082</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>27.50226514728335</v>
+        <v>27.50226514728336</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.90599289100223</v>
+        <v>-3.017243724960183</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.24603713376362</v>
+        <v>8.216823457180629</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>24.44627661555603</v>
+        <v>24.50251698805954</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2770779836908705</v>
+        <v>0.2732465882987908</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>9.686991195006737</v>
+        <v>9.529871256818607</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>25.27387139470696</v>
+        <v>25.41803675725888</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.5304789260487114</v>
+        <v>-0.3911286414653241</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>9.722295250949928</v>
+        <v>9.565563336478998</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>25.70184561363524</v>
+        <v>25.7623217757223</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.287645479806133</v>
+        <v>2.413376474139679</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.56359212202855</v>
+        <v>13.75752744264117</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>29.97439835520499</v>
+        <v>29.6947844970013</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.448571089932979</v>
+        <v>5.445020299051831</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>14.77380760025466</v>
+        <v>14.50895932566723</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>30.0725498483721</v>
+        <v>29.92203105841736</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.001707963665587</v>
+        <v>3.151821367912998</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>13.64836455291096</v>
+        <v>13.33900655910902</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>29.25026006335961</v>
+        <v>29.40072967605211</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.3839296381232897</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8843299063995537</v>
+        <v>0.8843299063995532</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.04211527596414575</v>
@@ -1411,7 +1411,7 @@
         <v>0.3758749434372922</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.8974448676669595</v>
+        <v>0.8974448676669599</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.09207995468254122</v>
+        <v>-0.0967605914966536</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2640203671635289</v>
+        <v>0.2629020763997872</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.7822080898620963</v>
+        <v>0.7766511647888958</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.008226726830915757</v>
+        <v>0.008536063759711962</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2974437464514014</v>
+        <v>0.2946242638930669</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7632655822988108</v>
+        <v>0.7819324365461484</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.01631194262872069</v>
+        <v>-0.01219040907630037</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3040944661879108</v>
+        <v>0.3053338035636209</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.8131592765768301</v>
+        <v>0.8135741401805079</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.08272724318410749</v>
+        <v>0.0848990563843017</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4847429779893714</v>
+        <v>0.4839764549599048</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.062532386507229</v>
+        <v>1.047563840742369</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1794443641195141</v>
+        <v>0.179956691944583</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4974483793814513</v>
+        <v>0.4836695210717116</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.013358305554793</v>
+        <v>1.007095867826717</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1012814435234028</v>
+        <v>0.1073274530966228</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4585768488435716</v>
+        <v>0.448735703205818</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.9880315438023253</v>
+        <v>0.9943899077685284</v>
       </c>
     </row>
     <row r="28">
